--- a/Cable Dimensions.xlsx
+++ b/Cable Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabin\OneDrive\Desktop\Python Code\Plant_Eval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E4B22-CBB6-4965-85B8-0FEDDBEB60AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567B1D9-8D95-4061-A7C9-D194EF5CC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multicore PVC SWA 4C" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>6.4</v>
       </c>
       <c r="E5" s="5">
-        <v>6.4</v>
+        <v>25252</v>
       </c>
       <c r="F5" s="5">
         <v>6.4</v>
@@ -635,7 +635,7 @@
         <v>1.5</v>
       </c>
       <c r="E8" s="2">
-        <v>0.14499999999999999</v>
+        <v>4040</v>
       </c>
       <c r="F8" s="3">
         <v>1.5</v>
